--- a/biology/Zoologie/Funisciurus/Funisciurus.xlsx
+++ b/biology/Zoologie/Funisciurus/Funisciurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Funisciurus est un genre de rongeurs de la famille des sciuridés.
 </t>
@@ -511,19 +523,21 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon ITIS      (2 juin 2016)[1] :
-Funisciurus anerythrus (Thomas, 1890) - Funiscure à dos rayé[2]
-Funisciurus bayonii (Bocage, 1890) - Funisciure de Bocage[2]
-Funisciurus carruthersi Thomas, 1906 - Écureuil de Carruthers[2]
-Funisciurus congicus (Kuhl, 1820) - Funisciure de Kuhl[2]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (2 juin 2016) :
+Funisciurus anerythrus (Thomas, 1890) - Funiscure à dos rayé
+Funisciurus bayonii (Bocage, 1890) - Funisciure de Bocage
+Funisciurus carruthersi Thomas, 1906 - Écureuil de Carruthers
+Funisciurus congicus (Kuhl, 1820) - Funisciure de Kuhl
 Funisciurus duchaillui Sanborn, 1953
-Funisciurus isabella (Gray, 1862) - Écureuil d'Isabella[2]
+Funisciurus isabella (Gray, 1862) - Écureuil d'Isabella
 Funisciurus lemniscatus (Le Conte, 1857) - Funisciure rayé[réf. nécessaire]
-Funisciurus leucogenys (Waterhouse, 1842) - Funisciure à tête orange[2]
-Funisciurus pyrropus (F. Cuvier, 1833) - Funisciure aux pattes rousses[2]
-Funisciurus substriatus De Winton, 1899 -Funisciure de Kintampo[2]</t>
+Funisciurus leucogenys (Waterhouse, 1842) - Funisciure à tête orange
+Funisciurus pyrropus (F. Cuvier, 1833) - Funisciure aux pattes rousses
+Funisciurus substriatus De Winton, 1899 -Funisciure de Kintampo</t>
         </is>
       </c>
     </row>
